--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_025.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_025.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EK2.05) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) HPCS</t>
-  </si>
-  <si>
-    <t>(295006AA2.02) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295027EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295021AA1.02) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) RHR/shutdown cooling</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295025EK2.04) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) ARI/RPT/ATWS</t>
-  </si>
-  <si>
-    <t>(700000AA2.03) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator current limitations</t>
-  </si>
-  <si>
-    <t>(295038EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
-  </si>
-  <si>
-    <t>(295023AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Refueling interlocks</t>
-  </si>
-  <si>
-    <t>(295024EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) PCIS/NSSSS</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(295005AK2.04) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Main turbine generator and auxiliaries</t>
-  </si>
-  <si>
-    <t>(295003AA2.02) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Reactor power, pressure, and level</t>
-  </si>
-  <si>
-    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
-  </si>
-  <si>
-    <t>(295026EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) Suppression pool temperature monitoring system</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EK2.14) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) RPIS (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(295032EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Radiation releases</t>
-  </si>
-  <si>
-    <t>(295035EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.5 / 45.6) Blow-out panel operation</t>
-  </si>
-  <si>
-    <t>(295022AA1.05) Ability to operate and/or monitor the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.7 / 45.6) NBI</t>
-  </si>
-  <si>
-    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295009AK2.02) Knowledge of the relationship between the (APE 9) LOW REACTOR WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Reactor water level control</t>
-  </si>
-  <si>
-    <t>(295010AA2.05) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell air cooler drain flow</t>
-  </si>
-  <si>
-    <t>(239002A2.06) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Reactor high pressure</t>
-  </si>
-  <si>
-    <t>(215003A4.04) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) IRM back panel switches, meters, and indicating lights</t>
-  </si>
-  <si>
-    <t>(218000K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.7 / 45.7) Primary containment/drywell pressure instrumentation</t>
-  </si>
-  <si>
-    <t>(205000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(300000K5.13) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) Low instrument air pressure</t>
-  </si>
-  <si>
-    <t>(264000K4.06) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Governor control</t>
-  </si>
-  <si>
-    <t>(262002A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(212000K3.07) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power</t>
-  </si>
-  <si>
-    <t>(209001K2.02) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
-  </si>
-  <si>
-    <t>(263000A3.02) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker trips</t>
-  </si>
-  <si>
-    <t>(203000A2.16) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of coolant accident</t>
-  </si>
-  <si>
-    <t>(262001A4.03) Ability to manually operate and/or monitor the (SF6 AC) AC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Local operation of breakers</t>
-  </si>
-  <si>
-    <t>(259002K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Reactor water level input</t>
-  </si>
-  <si>
-    <t>(211000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Redundant reactivity control system</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (291002K1.05) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Operation of a flow D/P cell-type flow detector</t>
-  </si>
-  <si>
-    <t>(209002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Indications of pump cavitation</t>
-  </si>
-  <si>
-    <t>(261000K4.02) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Charcoal bed decay heat removal</t>
-  </si>
-  <si>
-    <t>(215004A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) SRMS count rate and period</t>
-  </si>
-  <si>
-    <t>(510000K3.03) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Circulating water system</t>
-  </si>
-  <si>
-    <t>(400000K2.01) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW pumps</t>
-  </si>
-  <si>
-    <t>(217000A3.07) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Trips and isolations</t>
-  </si>
-  <si>
-    <t>(239002A2.02) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Leaking SRV</t>
-  </si>
-  <si>
-    <t>(215003A4.05) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Trip bypasses</t>
-  </si>
-  <si>
-    <t>(218000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.7 / 45.7) RHR/LPCI pump running permissive</t>
-  </si>
-  <si>
-    <t>(205000K1.17) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(271000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.5 / 45.3 / 45.5) Charcoal bed humidity</t>
-  </si>
-  <si>
-    <t>(202001A3.10) Ability to monitor automatic operation of the (SF1, SF4 RS) RECIRCULATION SYSTEM including: (CFR: 41.7 / 45.7) VFD start sequence</t>
-  </si>
-  <si>
-    <t>(226001A2.10) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Nuclear boiler instrument failures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(201005A4.05) Ability to manually operate and/or monitor the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Bypassing a rod drive in rod gang drive system </t>
-  </si>
-  <si>
-    <t>(256000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 CDS) CONDENSATE SYSTEM: (CFR: 41.7 / 45.7) Condensate demineralizer system</t>
-  </si>
-  <si>
-    <t>(245000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Hydrogen seal oil system</t>
-  </si>
-  <si>
-    <t>(241000) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(259001K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.5 / 45.3) Feedwater heaters, including heater drain pumps</t>
-  </si>
-  <si>
-    <t>(510001K4.04) Knowledge of (SF8 CWS*) CIRCULATING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Turbine load reduction</t>
-  </si>
-  <si>
-    <t>(230000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.5 / 45.5) Condensate storage tank level</t>
-  </si>
-  <si>
-    <t>(234000K3.05) Knowledge of the effect that a loss or malfunction of the (SF8 FH) FUEL HANDLING will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fuel pool level</t>
-  </si>
-  <si>
-    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t xml:space="preserve">(600000AA1.09) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Plant fire zone panel (including detector location) </t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295018AA2.03) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss</t>
+  </si>
+  <si>
+    <t>(295021AK2.05) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(295003AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Load shedding</t>
+  </si>
+  <si>
+    <t>(295025EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Pressure effects on reactor water level</t>
+  </si>
+  <si>
+    <t>(295001AA1.06) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Power range monitoring system</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295023AA2.02) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Fuel pool level</t>
+  </si>
+  <si>
+    <t>(295031EK2.15) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
+  </si>
+  <si>
+    <t>(295024EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Containment building integrity (Mark III)</t>
+  </si>
+  <si>
+    <t>(295006AA1.04) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Recirculation system</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295037EA2.09) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) SCRAM air header pressure</t>
+  </si>
+  <si>
+    <t>(295038EK2.14) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Main and reheat steam system</t>
+  </si>
+  <si>
+    <t>(700000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Actions contained in abnormal operating procedure for voltage and grid disturbances</t>
+  </si>
+  <si>
+    <t>(295019AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Dryer/filter realignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295016AA1.05) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) AC electrical distribution </t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295007AK2.07) Knowledge of the relationship between the (APE 7) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(295014AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(500000EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.8 to 41.10) Hydrogen generation</t>
+  </si>
+  <si>
+    <t>(295017AA1.06) Ability to operate and/or monitor the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.7 / 45.6) Condenser air removal system</t>
+  </si>
+  <si>
+    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(295036EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Operability of components within the affected area</t>
+  </si>
+  <si>
+    <t>(262002K3.15) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Main turbine generator and auxiliary systems</t>
+  </si>
+  <si>
+    <t>(209001K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Condensate system</t>
+  </si>
+  <si>
+    <t>(218000A2.01) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Steam line break</t>
+  </si>
+  <si>
+    <t>(215003K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Gamma discrimination</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(217000A3.08) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Automatic flow control</t>
+  </si>
+  <si>
+    <t>(211000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) Core spray system</t>
+  </si>
+  <si>
+    <t>(215004K2.03) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive module control</t>
+  </si>
+  <si>
+    <t>(400000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW pressure</t>
+  </si>
+  <si>
+    <t>(510000A4.01) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Pump operations</t>
+  </si>
+  <si>
+    <t>(263000K4.06) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Divisional separation</t>
+  </si>
+  <si>
+    <t>(264000K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(203000K1.24) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 43.5 / 45.7 / 45.8) Leak detection system</t>
+  </si>
+  <si>
+    <t>(261000A2.15) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High area radiation by refuel bridge</t>
+  </si>
+  <si>
+    <t>(259002K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Pump runout</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (291003K1.01) CONTROLLERS AND POSITIONERS (CFR: 41.7) Function and operation of flow controller in manual and automatic modes</t>
+  </si>
+  <si>
+    <t>(212000A3.09) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) System actuation</t>
+  </si>
+  <si>
+    <t>(209002K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Abnormal suppression pool water level</t>
+  </si>
+  <si>
+    <t>(262001K2.03) (SF6 AC) AC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Major motor control centers/buses (480 volts and higher)</t>
+  </si>
+  <si>
+    <t>(239002A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(223002A4.02) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Initiation of the system</t>
+  </si>
+  <si>
+    <t>(300000K4.02) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Crossover to other pneumatic systems</t>
+  </si>
+  <si>
+    <t>(262002K3.20) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(209001K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment</t>
+  </si>
+  <si>
+    <t>(218000A2.06) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS initiation signals present</t>
+  </si>
+  <si>
+    <t>(215003K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Inoperable</t>
+  </si>
+  <si>
+    <t>(216000A4.03) Ability to manually operate and/or monitor the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION in the control room: (CFR: 41.7 / 45.5 to 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(201003K4.01) Knowledge of (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM design features and/or interlocks that provide for the following: (CFR: 41.1-7 / 41.10 / 45.1-6) Limiting control rod velocity in the event of a rod drop</t>
+  </si>
+  <si>
+    <t>(286000K3.09) Knowledge of the effect that a loss or malfunction of the (SF8 FPS) FIRE PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) AC electrical distribution systems</t>
+  </si>
+  <si>
+    <t>(259001K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 FWS) FEEDWATER SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Condensate system</t>
+  </si>
+  <si>
+    <t>(201001A2.08) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Inadequate system flow</t>
+  </si>
+  <si>
+    <t>(226001K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE : (CFR: 41.5 / 45.3) Pressure suppression pressure</t>
+  </si>
+  <si>
+    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(290001A3.01) Ability to monitor automatic operation of the (SF5 SC) SECONDARY CONTAINMENT including: (CFR: 41.7 / 45.7) Secondary containment isolation</t>
+  </si>
+  <si>
+    <t>(202001K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1, SF4 RS) RECIRCULATION SYSTEM: (CFR: 41.7 / 45.7) Reactor water level</t>
+  </si>
+  <si>
+    <t>(271000K4.02) Knowledge of (SF9 OG) OFFGAS SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of water entering the recombiner catalyst</t>
+  </si>
+  <si>
+    <t>(219000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.5 / 45.5) Condensate storage tank level</t>
+  </si>
+  <si>
+    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292002K1.08) NEUTRON LIFE CYCLE (CFR: 41.1) Define effective multiplication factor (K-effective) and discuss its relationship to the state of a reactor (critical, subcritical, and supercritical)</t>
+  </si>
+  <si>
+    <t>(292008K1.07) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (CRITICALITY) Define criticality as related to a reactor startup</t>
+  </si>
+  <si>
+    <t>(292004K1.10) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the void coefficient of reactivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(293007K1.01) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Describe three mechanisms of heat transfer </t>
+  </si>
+  <si>
+    <t>(293008K1.07) THERMAL HYDRAULICS (CFR: 41.14) (POOL BOILING CURVE (TEMPERATURE VS. HEAT FLUX)) Define nucleate boiling, subcooled nucleate boiling, and bulk boiling</t>
+  </si>
+  <si>
+    <t>(293003K1.22) STEAM (CFR: 41.14) Explain the usefulness of steam tables to the control</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295005AA2.06) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Feedwater temperature</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AA2.06) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295010AA2.02) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(217000A2.06) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of instrument air systems</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215004A2.03) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck detector</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(239003A2.03) Ability to (a) predict the impacts of the following on the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low dilution air flow (inboard or outboard)</t>
+  </si>
+  <si>
+    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(290002A2.05) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Exceeding thermal limits</t>
+  </si>
+  <si>
+    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292001K1.02) NEUTRONS (CFR: 41.1) Define prompt and delayed neutrons</t>
-  </si>
-  <si>
-    <t>(292004K1.10) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the void coefficient of reactivity</t>
-  </si>
-  <si>
-    <t>(292006K1.11) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Power changes from steady-state power to another</t>
-  </si>
-  <si>
-    <t>(293008K1.20) THERMAL HYDRAULICS (CFR: 41.14) (CORE INLET SUBCOOLING) Define carryunder</t>
-  </si>
-  <si>
-    <t>(293007K1.06) HEAT TRANSFER (CFR: 41.14) (HEAT EXCHANGERS) Discuss the factors that affect heat transfer rate in</t>
-  </si>
-  <si>
-    <t>(293010K1.02) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the definition of nil-ductility transition temperature</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295019AK2.02) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Component cooling water</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295021AA2.01) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Containment/drywell temperature</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295020AA2.07) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Condenser vacuum</t>
-  </si>
-  <si>
-    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(300000A2.02) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Component cooling water system malfunction</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(262002A2.01) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal voltage</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(288000A2.04) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High radiation</t>
-  </si>
-  <si>
-    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(233000A2.01) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal fuel pool level </t>
-  </si>
-  <si>
-    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>K2</t>
   </si>
   <si>
-    <t>A2</t>
+    <t>K3</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K6</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>K4</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
     <t>295016</t>
   </si>
   <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
     <t>295027</t>
   </si>
   <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295037</t>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293003</t>
   </si>
   <si>
     <t>295032</t>
   </si>
   <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
     <t>295010</t>
   </si>
   <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>288000</t>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>223001</t>
   </si>
   <si>
     <t>290002</t>
-  </si>
-  <si>
-    <t>233000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1616,7 +1616,7 @@
         <v>4.4</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1633,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,7 +1681,7 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D43" t="s">
         <v>116</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="D78" t="s">
         <v>107</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D80" t="s">
         <v>107</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D82" t="s">
         <v>107</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="D85" t="s">
         <v>107</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D88" t="s">
         <v>107</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="D92" t="s">
         <v>107</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D94" t="s">
         <v>107</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
